--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150519.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150519.xlsx
@@ -278,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -346,25 +346,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -415,17 +402,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>9</v>
@@ -1028,29 +1009,29 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150519.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150519.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -278,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -346,25 +346,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -415,14 +402,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -711,7 +692,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>9</v>
@@ -1032,25 +1013,25 @@
       <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
